--- a/testdata/MasterData.xlsx
+++ b/testdata/MasterData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ModuleNames" sheetId="1" r:id="rId1"/>
     <sheet name="PreferredLaneData" sheetId="2" r:id="rId2"/>
-    <sheet name="DedicatedOpportunitiesData" sheetId="3" r:id="rId3"/>
+    <sheet name="ReloadsData" sheetId="4" r:id="rId3"/>
+    <sheet name="DedicatedOpportunitiesData" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Key</t>
   </si>
@@ -136,6 +137,15 @@
   </si>
   <si>
     <t>PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key </t>
+  </si>
+  <si>
+    <t>ReloadsModalTitle</t>
+  </si>
+  <si>
+    <t>Reloads View Trip</t>
   </si>
 </sst>
 </file>
@@ -145,8 +155,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -174,7 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,8 +197,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,8 +227,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +251,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -247,14 +274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -265,45 +284,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,19 +328,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,163 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +548,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,15 +600,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -607,6 +617,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -615,15 +634,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -648,135 +658,133 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -1101,7 +1109,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1111,90 +1119,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1210,8 +1218,8 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1309,10 +1317,47 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="28.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="18.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
